--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_v.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_v.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G301"/>
+  <dimension ref="A1:H301"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -393,6 +393,11 @@
           <t>k_index</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>rel_abundance</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -418,6 +423,9 @@
       <c r="G2">
         <v>0.5539214466099297</v>
       </c>
+      <c r="H2">
+        <v>0.0674674163046256</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -443,6 +451,9 @@
       <c r="G3">
         <v>0.5414305971712106</v>
       </c>
+      <c r="H3">
+        <v>0.192435471505239</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -468,6 +479,9 @@
       <c r="G4">
         <v>0.5363212690597532</v>
       </c>
+      <c r="H4">
+        <v>0.1765908510094557</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -493,6 +507,9 @@
       <c r="G5">
         <v>0.4786614221476723</v>
       </c>
+      <c r="H5">
+        <v>0.1551239458216202</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -518,6 +535,9 @@
       <c r="G6">
         <v>0.6509072139679546</v>
       </c>
+      <c r="H6">
+        <v>0.5351392793253258</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -543,6 +563,9 @@
       <c r="G7">
         <v>0.6265846699887423</v>
       </c>
+      <c r="H7">
+        <v>0.3810375670840787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -568,6 +591,9 @@
       <c r="G8">
         <v>0.648390196085092</v>
       </c>
+      <c r="H8">
+        <v>0.1673907487860976</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -593,6 +619,9 @@
       <c r="G9">
         <v>0.6752972024115527</v>
       </c>
+      <c r="H9">
+        <v>0.4561717352415027</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -618,6 +647,9 @@
       <c r="G10">
         <v>0.7011637845781656</v>
       </c>
+      <c r="H10">
+        <v>0.6636851520572451</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -643,6 +675,9 @@
       <c r="G11">
         <v>0.6914539399512194</v>
       </c>
+      <c r="H11">
+        <v>0.2323025811397904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -668,6 +703,9 @@
       <c r="G12">
         <v>0.6320869430041537</v>
       </c>
+      <c r="H12">
+        <v>0.1827242524916944</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -693,6 +731,9 @@
       <c r="G13">
         <v>0.6419181647041091</v>
       </c>
+      <c r="H13">
+        <v>0.6506516739074879</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -718,6 +759,9 @@
       <c r="G14">
         <v>0.6870537161706491</v>
       </c>
+      <c r="H14">
+        <v>0.9044211602351138</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -743,6 +787,9 @@
       <c r="G15">
         <v>0.7098525006350846</v>
       </c>
+      <c r="H15">
+        <v>0.4589828775875288</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -768,6 +815,9 @@
       <c r="G16">
         <v>0.6716394834082039</v>
       </c>
+      <c r="H16">
+        <v>0.4290825453616151</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -793,6 +843,9 @@
       <c r="G17">
         <v>0.6037085940843107</v>
       </c>
+      <c r="H17">
+        <v>0.2760030667007411</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -818,6 +871,9 @@
       <c r="G18">
         <v>0.5167700173621047</v>
       </c>
+      <c r="H18">
+        <v>0.1270125223613596</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -843,6 +899,9 @@
       <c r="G19">
         <v>0.6537330132922942</v>
       </c>
+      <c r="H19">
+        <v>0.1740352670585229</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -868,6 +927,9 @@
       <c r="G20">
         <v>0.6005025340343552</v>
       </c>
+      <c r="H20">
+        <v>0.2956810631229236</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -893,6 +955,9 @@
       <c r="G21">
         <v>0.6938334145214491</v>
       </c>
+      <c r="H21">
+        <v>0.3411704574495272</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -918,6 +983,9 @@
       <c r="G22">
         <v>0.5767184758576877</v>
       </c>
+      <c r="H22">
+        <v>0.4840276003066701</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -943,6 +1011,9 @@
       <c r="G23">
         <v>0.5617227774881161</v>
       </c>
+      <c r="H23">
+        <v>0.1426015844620496</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -968,6 +1039,9 @@
       <c r="G24">
         <v>0.5722798093493313</v>
       </c>
+      <c r="H24">
+        <v>0.3064145157168413</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -993,6 +1067,9 @@
       <c r="G25">
         <v>0.6384051349627995</v>
       </c>
+      <c r="H25">
+        <v>0.3442371581906465</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1018,6 +1095,9 @@
       <c r="G26">
         <v>0.5557772615819265</v>
       </c>
+      <c r="H26">
+        <v>0.1556350626118068</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1043,6 +1123,9 @@
       <c r="G27">
         <v>0.4831287488998558</v>
       </c>
+      <c r="H27">
+        <v>0.1627906976744186</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1068,6 +1151,9 @@
       <c r="G28">
         <v>0.5582192167175037</v>
       </c>
+      <c r="H28">
+        <v>0.2141579350881676</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1093,6 +1179,9 @@
       <c r="G29">
         <v>0.5918538642270078</v>
       </c>
+      <c r="H29">
+        <v>0.07053411704574496</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1118,6 +1207,9 @@
       <c r="G30">
         <v>0.6401515129377779</v>
       </c>
+      <c r="H30">
+        <v>0.2415026833631485</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1143,6 +1235,9 @@
       <c r="G31">
         <v>0.5566976134324827</v>
       </c>
+      <c r="H31">
+        <v>0.3444927165857398</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1168,6 +1263,9 @@
       <c r="G32">
         <v>0.6126154364937393</v>
       </c>
+      <c r="H32">
+        <v>0.1533350370559673</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1193,6 +1291,9 @@
       <c r="G33">
         <v>0.5992844849797576</v>
       </c>
+      <c r="H33">
+        <v>0.2877587528750319</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1218,6 +1319,9 @@
       <c r="G34">
         <v>0.4281758227829867</v>
       </c>
+      <c r="H34">
+        <v>0.08791208791208792</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1243,6 +1347,9 @@
       <c r="G35">
         <v>0.5844605684923411</v>
       </c>
+      <c r="H35">
+        <v>0.2558139534883721</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1268,6 +1375,9 @@
       <c r="G36">
         <v>0.5411024307737783</v>
       </c>
+      <c r="H36">
+        <v>0.2798364426271403</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1293,6 +1403,9 @@
       <c r="G37">
         <v>0.5717613115560038</v>
       </c>
+      <c r="H37">
+        <v>0.1788908765652952</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1318,6 +1431,9 @@
       <c r="G38">
         <v>0.6333990459990494</v>
       </c>
+      <c r="H38">
+        <v>0.2747252747252747</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1343,6 +1459,9 @@
       <c r="G39">
         <v>0.4864593844263738</v>
       </c>
+      <c r="H39">
+        <v>0.217224635829287</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1368,6 +1487,9 @@
       <c r="G40">
         <v>0.3992219033291406</v>
       </c>
+      <c r="H40">
+        <v>0.223613595706619</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1393,6 +1515,9 @@
       <c r="G41">
         <v>0.6361973726589679</v>
       </c>
+      <c r="H41">
+        <v>0.2844364937388193</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1418,6 +1543,9 @@
       <c r="G42">
         <v>0.4580682949316448</v>
       </c>
+      <c r="H42">
+        <v>0.08663429593662152</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1443,6 +1571,9 @@
       <c r="G43">
         <v>0.3904180183514258</v>
       </c>
+      <c r="H43">
+        <v>0.09736774853053923</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1468,6 +1599,9 @@
       <c r="G44">
         <v>0.6182434591302841</v>
       </c>
+      <c r="H44">
+        <v>0.1817020189113212</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1493,6 +1627,9 @@
       <c r="G45">
         <v>0.3730567909154147</v>
       </c>
+      <c r="H45">
+        <v>0.03731152568361871</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1518,6 +1655,9 @@
       <c r="G46">
         <v>0.4343468577396056</v>
       </c>
+      <c r="H46">
+        <v>0.09813442371581907</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1543,6 +1683,9 @@
       <c r="G47">
         <v>0.5361611704817053</v>
       </c>
+      <c r="H47">
+        <v>0.120112445693841</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1568,6 +1711,9 @@
       <c r="G48">
         <v>0.4226615795538363</v>
       </c>
+      <c r="H48">
+        <v>0.09021211346792742</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1593,6 +1739,9 @@
       <c r="G49">
         <v>0.4310362957673231</v>
       </c>
+      <c r="H49">
+        <v>0.07027855865065168</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1618,6 +1767,9 @@
       <c r="G50">
         <v>0.5883933839314587</v>
       </c>
+      <c r="H50">
+        <v>0.08561206235624841</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1643,6 +1795,9 @@
       <c r="G51">
         <v>0.4179756986627131</v>
       </c>
+      <c r="H51">
+        <v>0.1101456682852032</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1668,6 +1823,9 @@
       <c r="G52">
         <v>0.3567262963833185</v>
       </c>
+      <c r="H52">
+        <v>0.0626118067978533</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1693,6 +1851,9 @@
       <c r="G53">
         <v>0.5697607165065611</v>
       </c>
+      <c r="H53">
+        <v>0.1119345770508561</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1718,6 +1879,9 @@
       <c r="G54">
         <v>0.4089180641891749</v>
       </c>
+      <c r="H54">
+        <v>0.05111167901865576</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1743,6 +1907,9 @@
       <c r="G55">
         <v>0.3937068420468916</v>
       </c>
+      <c r="H55">
+        <v>0.06670074111934578</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1768,6 +1935,9 @@
       <c r="G56">
         <v>0.4890526019676808</v>
       </c>
+      <c r="H56">
+        <v>0.04753386148734986</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1793,6 +1963,9 @@
       <c r="G57">
         <v>0.5917257599365187</v>
       </c>
+      <c r="H57">
+        <v>0.1019677996422182</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1818,6 +1991,9 @@
       <c r="G58">
         <v>0.2847665431079534</v>
       </c>
+      <c r="H58">
+        <v>0.03475594173268592</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1843,6 +2019,9 @@
       <c r="G59">
         <v>0.4274877917197371</v>
       </c>
+      <c r="H59">
+        <v>0.09481216457960644</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1868,6 +2047,9 @@
       <c r="G60">
         <v>0.4076643476753347</v>
       </c>
+      <c r="H60">
+        <v>0.06210069000766675</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1893,6 +2075,9 @@
       <c r="G61">
         <v>0.382194684477846</v>
       </c>
+      <c r="H61">
+        <v>0.01558906210069001</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1918,6 +2103,9 @@
       <c r="G62">
         <v>0.5142650442850889</v>
       </c>
+      <c r="H62">
+        <v>0.1857909532328137</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1943,6 +2131,9 @@
       <c r="G63">
         <v>0.5291423697813851</v>
       </c>
+      <c r="H63">
+        <v>0.05724508050089445</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1968,6 +2159,9 @@
       <c r="G64">
         <v>0.3828646316426652</v>
       </c>
+      <c r="H64">
+        <v>0.01431127012522361</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1993,6 +2187,9 @@
       <c r="G65">
         <v>0.442801157845308</v>
       </c>
+      <c r="H65">
+        <v>0.1377459749552773</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -2018,6 +2215,9 @@
       <c r="G66">
         <v>0.4070899450335168</v>
       </c>
+      <c r="H66">
+        <v>0.03475594173268592</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -2043,6 +2243,9 @@
       <c r="G67">
         <v>0.3728941829442116</v>
       </c>
+      <c r="H67">
+        <v>0.02300025555839509</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2068,6 +2271,9 @@
       <c r="G68">
         <v>0.6984497460941174</v>
       </c>
+      <c r="H68">
+        <v>0.184257602862254</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2093,6 +2299,9 @@
       <c r="G69">
         <v>0.502571771178997</v>
       </c>
+      <c r="H69">
+        <v>0.03066700741119346</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -2118,6 +2327,9 @@
       <c r="G70">
         <v>0.408988607690199</v>
       </c>
+      <c r="H70">
+        <v>0.009966777408637873</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2143,6 +2355,9 @@
       <c r="G71">
         <v>0.6413258786253547</v>
       </c>
+      <c r="H71">
+        <v>0.1075900843342704</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2168,6 +2383,9 @@
       <c r="G72">
         <v>0.517099544539097</v>
       </c>
+      <c r="H72">
+        <v>0.06848964988499873</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2193,6 +2411,9 @@
       <c r="G73">
         <v>0.43018213052507</v>
       </c>
+      <c r="H73">
+        <v>0.007155635062611807</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2218,6 +2439,9 @@
       <c r="G74">
         <v>0.5198302737982534</v>
       </c>
+      <c r="H74">
+        <v>0.06618962432915922</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2243,6 +2467,9 @@
       <c r="G75">
         <v>0.4417148970799078</v>
       </c>
+      <c r="H75">
+        <v>0.05571173013033478</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2268,6 +2495,9 @@
       <c r="G76">
         <v>0.5013087762650751</v>
       </c>
+      <c r="H76">
+        <v>0.02708918987988755</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2293,6 +2523,9 @@
       <c r="G77">
         <v>0.7848121651765076</v>
       </c>
+      <c r="H77">
+        <v>0.2141579350881676</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2318,6 +2551,9 @@
       <c r="G78">
         <v>0.5263748660143458</v>
       </c>
+      <c r="H78">
+        <v>0.04267825198057756</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2343,6 +2579,9 @@
       <c r="G79">
         <v>0.5712096215894972</v>
       </c>
+      <c r="H79">
+        <v>0.07513416815742398</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2368,6 +2607,9 @@
       <c r="G80">
         <v>0.719531130945533</v>
       </c>
+      <c r="H80">
+        <v>0.2775364170713008</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2393,6 +2635,9 @@
       <c r="G81">
         <v>0.7424759273717116</v>
       </c>
+      <c r="H81">
+        <v>0.242013800153335</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2418,6 +2663,9 @@
       <c r="G82">
         <v>0.6881590274005746</v>
       </c>
+      <c r="H82">
+        <v>0.1635573728596984</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2443,6 +2691,9 @@
       <c r="G83">
         <v>0.653534429309327</v>
       </c>
+      <c r="H83">
+        <v>0.2136468182979811</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2468,6 +2719,9 @@
       <c r="G84">
         <v>0.6366414343754307</v>
       </c>
+      <c r="H84">
+        <v>0.07768975210835675</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2493,6 +2747,9 @@
       <c r="G85">
         <v>0.7031026260074139</v>
       </c>
+      <c r="H85">
+        <v>0.1505238947099412</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2518,6 +2775,9 @@
       <c r="G86">
         <v>0.6027442716128505</v>
       </c>
+      <c r="H86">
+        <v>0.5504727830309226</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2543,6 +2803,9 @@
       <c r="G87">
         <v>0.7131028791814813</v>
       </c>
+      <c r="H87">
+        <v>0.6841298236647074</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2568,6 +2831,9 @@
       <c r="G88">
         <v>0.596666170836707</v>
       </c>
+      <c r="H88">
+        <v>0.1934577050856121</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2593,6 +2859,9 @@
       <c r="G89">
         <v>0.4963794532698622</v>
       </c>
+      <c r="H89">
+        <v>0.2210580117556862</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2618,6 +2887,9 @@
       <c r="G90">
         <v>0.5563195847309085</v>
       </c>
+      <c r="H90">
+        <v>0.1505238947099412</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2643,6 +2915,9 @@
       <c r="G91">
         <v>0.6911016036620283</v>
       </c>
+      <c r="H91">
+        <v>0.434449271658574</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2668,6 +2943,9 @@
       <c r="G92">
         <v>0.8131179808066756</v>
       </c>
+      <c r="H92">
+        <v>0.2734474827498083</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2693,6 +2971,9 @@
       <c r="G93">
         <v>0.7670166432783699</v>
       </c>
+      <c r="H93">
+        <v>0.9639662662918477</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2718,6 +2999,9 @@
       <c r="G94">
         <v>0.5880396530065258</v>
       </c>
+      <c r="H94">
+        <v>0.3536928188090979</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2743,6 +3027,9 @@
       <c r="G95">
         <v>0.7272977421254189</v>
       </c>
+      <c r="H95">
+        <v>0.8732430360337337</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2768,6 +3055,9 @@
       <c r="G96">
         <v>0.6431731013937169</v>
       </c>
+      <c r="H96">
+        <v>0.3117812420138001</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2793,6 +3083,9 @@
       <c r="G97">
         <v>0.5920274837300732</v>
       </c>
+      <c r="H97">
+        <v>0.2208024533605929</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2818,6 +3111,9 @@
       <c r="G98">
         <v>0.6048314248593835</v>
       </c>
+      <c r="H98">
+        <v>0.09353437260414005</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2843,6 +3139,9 @@
       <c r="G99">
         <v>0.6352049336033192</v>
       </c>
+      <c r="H99">
+        <v>0.0590339892665474</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2868,6 +3167,9 @@
       <c r="G100">
         <v>0.683778972187477</v>
       </c>
+      <c r="H100">
+        <v>0.05775619729108101</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2893,6 +3195,9 @@
       <c r="G101">
         <v>0.5587875396822665</v>
       </c>
+      <c r="H101">
+        <v>0.09966777408637874</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2918,6 +3223,9 @@
       <c r="G102">
         <v>0.5692571275785997</v>
       </c>
+      <c r="H102">
+        <v>0.05775619729108101</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2943,6 +3251,9 @@
       <c r="G103">
         <v>0.5765887572972809</v>
       </c>
+      <c r="H103">
+        <v>0.06312292358803986</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2968,6 +3279,9 @@
       <c r="G104">
         <v>0.6746856082527718</v>
       </c>
+      <c r="H104">
+        <v>0.2404804497827754</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2993,6 +3307,9 @@
       <c r="G105">
         <v>0.8091198187386636</v>
       </c>
+      <c r="H105">
+        <v>0.3621262458471761</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -3018,6 +3335,9 @@
       <c r="G106">
         <v>0.8510461777563538</v>
       </c>
+      <c r="H106">
+        <v>0.7687196524405827</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -3043,6 +3363,9 @@
       <c r="G107">
         <v>0.7169443238908174</v>
       </c>
+      <c r="H107">
+        <v>0.2213135701507795</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -3068,6 +3391,9 @@
       <c r="G108">
         <v>0.8664000731606638</v>
       </c>
+      <c r="H108">
+        <v>0.6197291081012011</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -3093,6 +3419,9 @@
       <c r="G109">
         <v>0.7562074376110842</v>
       </c>
+      <c r="H109">
+        <v>0.2846920521339126</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -3118,6 +3447,9 @@
       <c r="G110">
         <v>0.6652181397286516</v>
       </c>
+      <c r="H110">
+        <v>0.2427804753386149</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -3143,6 +3475,9 @@
       <c r="G111">
         <v>0.4517482206138081</v>
       </c>
+      <c r="H111">
+        <v>0.1213902376693074</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -3168,6 +3503,9 @@
       <c r="G112">
         <v>0.546492600075656</v>
       </c>
+      <c r="H112">
+        <v>0.09762330692563251</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -3193,6 +3531,9 @@
       <c r="G113">
         <v>0.5625561728127837</v>
       </c>
+      <c r="H113">
+        <v>0.09966777408637874</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -3218,6 +3559,9 @@
       <c r="G114">
         <v>0.549090262480761</v>
       </c>
+      <c r="H114">
+        <v>0.08586762075134168</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -3243,6 +3587,9 @@
       <c r="G115">
         <v>0.6909410686650653</v>
       </c>
+      <c r="H115">
+        <v>0.1239458216202402</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -3268,6 +3615,9 @@
       <c r="G116">
         <v>0.5634766935554414</v>
       </c>
+      <c r="H116">
+        <v>0.1308458982877587</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3293,6 +3643,9 @@
       <c r="G117">
         <v>0.604301652971176</v>
       </c>
+      <c r="H117">
+        <v>0.1290569895221058</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3318,6 +3671,9 @@
       <c r="G118">
         <v>0.6952491813936286</v>
       </c>
+      <c r="H118">
+        <v>0.31254791719908</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3343,6 +3699,9 @@
       <c r="G119">
         <v>0.52677051698689</v>
       </c>
+      <c r="H119">
+        <v>0.2162024022489139</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3368,6 +3727,9 @@
       <c r="G120">
         <v>0.6839014027881554</v>
       </c>
+      <c r="H120">
+        <v>0.1886020955788398</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3393,6 +3755,9 @@
       <c r="G121">
         <v>0.6446613093014665</v>
       </c>
+      <c r="H121">
+        <v>0.1768464094045489</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3418,6 +3783,9 @@
       <c r="G122">
         <v>0.5480059313089548</v>
       </c>
+      <c r="H122">
+        <v>0.2731919243547151</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3443,6 +3811,9 @@
       <c r="G123">
         <v>0.5588149509105503</v>
       </c>
+      <c r="H123">
+        <v>0.2576028622540251</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3468,6 +3839,9 @@
       <c r="G124">
         <v>0.6872196314591057</v>
       </c>
+      <c r="H124">
+        <v>0.2021466905187835</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3493,6 +3867,9 @@
       <c r="G125">
         <v>0.4643451432718299</v>
       </c>
+      <c r="H125">
+        <v>0.3179146434960388</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3518,6 +3895,9 @@
       <c r="G126">
         <v>0.5245892627152305</v>
       </c>
+      <c r="H126">
+        <v>0.1597239969332993</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3543,6 +3923,9 @@
       <c r="G127">
         <v>0.6015300705701657</v>
       </c>
+      <c r="H127">
+        <v>0.2292358803986711</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3568,6 +3951,9 @@
       <c r="G128">
         <v>0.5232748712413097</v>
       </c>
+      <c r="H128">
+        <v>0.2024022489138768</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3593,6 +3979,9 @@
       <c r="G129">
         <v>0.7791163044454137</v>
       </c>
+      <c r="H129">
+        <v>0.461027344748275</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3618,6 +4007,9 @@
       <c r="G130">
         <v>0.4716793640642491</v>
       </c>
+      <c r="H130">
+        <v>0.06721185790953232</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3643,6 +4035,9 @@
       <c r="G131">
         <v>0.7170958174416275</v>
       </c>
+      <c r="H131">
+        <v>0.8251980577561973</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3668,6 +4063,9 @@
       <c r="G132">
         <v>0.763534337487258</v>
       </c>
+      <c r="H132">
+        <v>0.5210835675951955</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3693,6 +4091,9 @@
       <c r="G133">
         <v>0.6494157259426822</v>
       </c>
+      <c r="H133">
+        <v>0.2887809864554051</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3718,6 +4119,9 @@
       <c r="G134">
         <v>0.4429265688226399</v>
       </c>
+      <c r="H134">
+        <v>0.1354459493994378</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3743,6 +4147,9 @@
       <c r="G135">
         <v>0.5174552868209843</v>
       </c>
+      <c r="H135">
+        <v>0.2026578073089701</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3768,6 +4175,9 @@
       <c r="G136">
         <v>0.6401672637530639</v>
       </c>
+      <c r="H136">
+        <v>0.2857142857142857</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3793,6 +4203,9 @@
       <c r="G137">
         <v>0.5294427754048412</v>
       </c>
+      <c r="H137">
+        <v>0.2246358292869921</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3818,6 +4231,9 @@
       <c r="G138">
         <v>0.6287445425242574</v>
       </c>
+      <c r="H138">
+        <v>0.2757475083056478</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3843,6 +4259,9 @@
       <c r="G139">
         <v>0.6121514998921647</v>
       </c>
+      <c r="H139">
+        <v>0.1380015333503705</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3868,6 +4287,9 @@
       <c r="G140">
         <v>0.6789913382450731</v>
       </c>
+      <c r="H140">
+        <v>0.3312036800408893</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3893,6 +4315,9 @@
       <c r="G141">
         <v>0.7537384146413441</v>
       </c>
+      <c r="H141">
+        <v>0.4421160235113724</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3918,6 +4343,9 @@
       <c r="G142">
         <v>0.6504931263467418</v>
       </c>
+      <c r="H142">
+        <v>0.1323792486583184</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3943,6 +4371,9 @@
       <c r="G143">
         <v>0.3275999390580689</v>
       </c>
+      <c r="H143">
+        <v>0.07232302581139791</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3968,6 +4399,9 @@
       <c r="G144">
         <v>0.5468166375780561</v>
       </c>
+      <c r="H144">
+        <v>0.142090467671863</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3993,6 +4427,9 @@
       <c r="G145">
         <v>0.7570334303398301</v>
       </c>
+      <c r="H145">
+        <v>0.3240480449782775</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -4018,6 +4455,9 @@
       <c r="G146">
         <v>0.564646885090533</v>
       </c>
+      <c r="H146">
+        <v>0.615895732174802</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -4043,6 +4483,9 @@
       <c r="G147">
         <v>0.6423762555131721</v>
       </c>
+      <c r="H147">
+        <v>0.3005366726296959</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -4068,6 +4511,9 @@
       <c r="G148">
         <v>0.6353330826509614</v>
       </c>
+      <c r="H148">
+        <v>0.3355481727574751</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -4093,6 +4539,9 @@
       <c r="G149">
         <v>0.5734484010994917</v>
       </c>
+      <c r="H149">
+        <v>0.521594684385382</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -4118,6 +4567,9 @@
       <c r="G150">
         <v>0.741709015642726</v>
       </c>
+      <c r="H150">
+        <v>0.3225146946077179</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -4143,6 +4595,9 @@
       <c r="G151">
         <v>0.5129672487508805</v>
       </c>
+      <c r="H151">
+        <v>0.1967799642218247</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -4168,6 +4623,9 @@
       <c r="G152">
         <v>0.5664957681429253</v>
       </c>
+      <c r="H152">
+        <v>0.5686174290825453</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -4193,6 +4651,9 @@
       <c r="G153">
         <v>0.7244483702959682</v>
       </c>
+      <c r="H153">
+        <v>0.7114745719396882</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -4218,6 +4679,9 @@
       <c r="G154">
         <v>0.6680064174477868</v>
       </c>
+      <c r="H154">
+        <v>0.3033478149757219</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -4243,6 +4707,9 @@
       <c r="G155">
         <v>0.5948977668430216</v>
       </c>
+      <c r="H155">
+        <v>0.6606184513161257</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -4268,6 +4735,9 @@
       <c r="G156">
         <v>0.5456270494688947</v>
       </c>
+      <c r="H156">
+        <v>0.3340148223869154</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -4293,6 +4763,9 @@
       <c r="G157">
         <v>0.7466019060276045</v>
       </c>
+      <c r="H157">
+        <v>0.4076156401737797</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -4318,6 +4791,9 @@
       <c r="G158">
         <v>0.4050931256251792</v>
       </c>
+      <c r="H158">
+        <v>0.2001022233580373</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -4343,6 +4819,9 @@
       <c r="G159">
         <v>0.3991768833085542</v>
       </c>
+      <c r="H159">
+        <v>0.2417582417582418</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -4368,6 +4847,9 @@
       <c r="G160">
         <v>0.3740446133978149</v>
       </c>
+      <c r="H160">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -4393,6 +4875,9 @@
       <c r="G161">
         <v>0.5525878660053343</v>
       </c>
+      <c r="H161">
+        <v>0.6192179913110145</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4418,6 +4903,9 @@
       <c r="G162">
         <v>0.3266095810129206</v>
       </c>
+      <c r="H162">
+        <v>0.05980066445182725</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4443,6 +4931,9 @@
       <c r="G163">
         <v>0.4250440569079225</v>
       </c>
+      <c r="H163">
+        <v>0.1037567084078712</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4468,6 +4959,9 @@
       <c r="G164">
         <v>0.5129620955586278</v>
       </c>
+      <c r="H164">
+        <v>0.2632251469460772</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4493,6 +4987,9 @@
       <c r="G165">
         <v>0.3544782499592989</v>
       </c>
+      <c r="H165">
+        <v>0.07768975210835675</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4518,6 +5015,9 @@
       <c r="G166">
         <v>0.5051933749460048</v>
       </c>
+      <c r="H166">
+        <v>0.1500127779197547</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4543,6 +5043,9 @@
       <c r="G167">
         <v>0.8996661396168234</v>
       </c>
+      <c r="H167">
+        <v>1</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4568,6 +5071,9 @@
       <c r="G168">
         <v>0.4374951281541186</v>
       </c>
+      <c r="H168">
+        <v>0.0506005622284692</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4593,6 +5099,9 @@
       <c r="G169">
         <v>0.3863674252375241</v>
       </c>
+      <c r="H169">
+        <v>0.08510094556606185</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4618,6 +5127,9 @@
       <c r="G170">
         <v>0.4660534309270165</v>
       </c>
+      <c r="H170">
+        <v>0.0664451827242525</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4643,6 +5155,9 @@
       <c r="G171">
         <v>0.4466077274974843</v>
       </c>
+      <c r="H171">
+        <v>0.0132890365448505</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4668,6 +5183,9 @@
       <c r="G172">
         <v>0.5926058437686345</v>
       </c>
+      <c r="H172">
+        <v>0.01763352926143624</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4693,6 +5211,9 @@
       <c r="G173">
         <v>0.3877154394811112</v>
       </c>
+      <c r="H173">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4718,6 +5239,9 @@
       <c r="G174">
         <v>0.3273831842182195</v>
       </c>
+      <c r="H174">
+        <v>0.01916687963199591</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4743,6 +5267,9 @@
       <c r="G175">
         <v>0.4960456968552225</v>
       </c>
+      <c r="H175">
+        <v>0.02121134679274214</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4768,6 +5295,9 @@
       <c r="G176">
         <v>0.3841583534052228</v>
       </c>
+      <c r="H176">
+        <v>0.04574495272169691</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4793,6 +5323,9 @@
       <c r="G177">
         <v>0.3926284550962536</v>
       </c>
+      <c r="H177">
+        <v>0.05136723741374905</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4818,6 +5351,9 @@
       <c r="G178">
         <v>0.3407916688400262</v>
       </c>
+      <c r="H178">
+        <v>0.01124456938410427</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4843,6 +5379,9 @@
       <c r="G179">
         <v>0.3659976829958125</v>
       </c>
+      <c r="H179">
+        <v>0.01405571173013033</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4868,6 +5407,9 @@
       <c r="G180">
         <v>0.3409225721097868</v>
       </c>
+      <c r="H180">
+        <v>0.0120112445693841</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4893,6 +5435,9 @@
       <c r="G181">
         <v>0.3327253873309952</v>
       </c>
+      <c r="H181">
+        <v>0.01047789419882443</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4918,6 +5463,9 @@
       <c r="G182">
         <v>0.3025637646111364</v>
       </c>
+      <c r="H182">
+        <v>0.1249680552006133</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4943,6 +5491,9 @@
       <c r="G183">
         <v>0.3399389500519865</v>
       </c>
+      <c r="H183">
+        <v>0.2941477127523639</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4968,6 +5519,9 @@
       <c r="G184">
         <v>0.4349614071075362</v>
       </c>
+      <c r="H184">
+        <v>0.4198824431382571</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4993,6 +5547,9 @@
       <c r="G185">
         <v>0.5315245600963053</v>
       </c>
+      <c r="H185">
+        <v>0.1627906976744186</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -5018,6 +5575,9 @@
       <c r="G186">
         <v>0.4177361920836958</v>
       </c>
+      <c r="H186">
+        <v>0.03271147457193969</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -5043,6 +5603,9 @@
       <c r="G187">
         <v>0.4870596050801475</v>
       </c>
+      <c r="H187">
+        <v>0.04881165346281625</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -5068,6 +5631,9 @@
       <c r="G188">
         <v>0.5955657161343193</v>
       </c>
+      <c r="H188">
+        <v>0.09711219013544595</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -5093,6 +5659,9 @@
       <c r="G189">
         <v>0.5741097106469339</v>
       </c>
+      <c r="H189">
+        <v>0.03910043444927166</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -5118,6 +5687,9 @@
       <c r="G190">
         <v>0.470951321715191</v>
       </c>
+      <c r="H190">
+        <v>0.05826731408126757</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -5143,6 +5715,9 @@
       <c r="G191">
         <v>0.475755217142282</v>
       </c>
+      <c r="H191">
+        <v>0.4206491183235369</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -5168,6 +5743,9 @@
       <c r="G192">
         <v>0.4644785442249277</v>
       </c>
+      <c r="H192">
+        <v>0.05290058778430871</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -5193,6 +5771,9 @@
       <c r="G193">
         <v>0.5040966470976062</v>
       </c>
+      <c r="H193">
+        <v>0.06312292358803986</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -5218,6 +5799,9 @@
       <c r="G194">
         <v>0.5043828852184845</v>
       </c>
+      <c r="H194">
+        <v>0.09200102223358038</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -5243,6 +5827,9 @@
       <c r="G195">
         <v>0.5235884766596107</v>
       </c>
+      <c r="H195">
+        <v>0.2864809608995655</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -5268,6 +5855,9 @@
       <c r="G196">
         <v>0.5942820683140365</v>
       </c>
+      <c r="H196">
+        <v>0.290569895221058</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -5293,6 +5883,9 @@
       <c r="G197">
         <v>0.2782189851149384</v>
       </c>
+      <c r="H197">
+        <v>0.2435471505238947</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -5318,6 +5911,9 @@
       <c r="G198">
         <v>0.4646295097512238</v>
       </c>
+      <c r="H198">
+        <v>0.09787886532072579</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -5343,6 +5939,9 @@
       <c r="G199">
         <v>0.5616360367459845</v>
       </c>
+      <c r="H199">
+        <v>0.2031689240991567</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -5368,6 +5967,9 @@
       <c r="G200">
         <v>0.5398218678458589</v>
       </c>
+      <c r="H200">
+        <v>0.1730130334781498</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -5393,6 +5995,9 @@
       <c r="G201">
         <v>0.5263388963468452</v>
       </c>
+      <c r="H201">
+        <v>0.215435727063634</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -5418,6 +6023,9 @@
       <c r="G202">
         <v>0.5543638888786291</v>
       </c>
+      <c r="H202">
+        <v>0.2967032967032967</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -5443,6 +6051,9 @@
       <c r="G203">
         <v>0.4719207748100142</v>
       </c>
+      <c r="H203">
+        <v>0.07743419371326347</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -5468,6 +6079,9 @@
       <c r="G204">
         <v>0.5680492060302125</v>
       </c>
+      <c r="H204">
+        <v>0.2997699974444161</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -5493,6 +6107,9 @@
       <c r="G205">
         <v>0.5642586559699148</v>
       </c>
+      <c r="H205">
+        <v>0.3784819831331459</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -5518,6 +6135,9 @@
       <c r="G206">
         <v>0.6106465312972094</v>
       </c>
+      <c r="H206">
+        <v>0.2169690774341937</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -5543,6 +6163,9 @@
       <c r="G207">
         <v>0.7327054564348854</v>
       </c>
+      <c r="H207">
+        <v>0.2540250447227191</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5568,6 +6191,9 @@
       <c r="G208">
         <v>0.6633033463983072</v>
       </c>
+      <c r="H208">
+        <v>0.2381804242269359</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5593,6 +6219,9 @@
       <c r="G209">
         <v>0.6048469579737961</v>
       </c>
+      <c r="H209">
+        <v>0.2742141579350882</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5618,6 +6247,9 @@
       <c r="G210">
         <v>0.5121009153694961</v>
       </c>
+      <c r="H210">
+        <v>0.03526705852287248</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5643,6 +6275,9 @@
       <c r="G211">
         <v>0.6945838764816779</v>
       </c>
+      <c r="H211">
+        <v>0.157679529772553</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5668,6 +6303,9 @@
       <c r="G212">
         <v>0.6322571874043945</v>
       </c>
+      <c r="H212">
+        <v>0.1321236902632252</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5693,6 +6331,9 @@
       <c r="G213">
         <v>0.6678163286283916</v>
       </c>
+      <c r="H213">
+        <v>0.2834142601584462</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5718,6 +6359,9 @@
       <c r="G214">
         <v>0.7232791801885035</v>
       </c>
+      <c r="H214">
+        <v>0.2772808586762075</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5743,6 +6387,9 @@
       <c r="G215">
         <v>0.5164831721023802</v>
       </c>
+      <c r="H215">
+        <v>0.2353692818809098</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5768,6 +6415,9 @@
       <c r="G216">
         <v>0.5984944328105971</v>
       </c>
+      <c r="H216">
+        <v>0.09557883976488628</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5793,6 +6443,9 @@
       <c r="G217">
         <v>0.6206759538662097</v>
       </c>
+      <c r="H217">
+        <v>0.121901354459494</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5818,6 +6471,9 @@
       <c r="G218">
         <v>0.4829925329455627</v>
       </c>
+      <c r="H218">
+        <v>0.08280092001022234</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5843,6 +6499,9 @@
       <c r="G219">
         <v>0.5795488672945869</v>
       </c>
+      <c r="H219">
+        <v>0.1198568872987478</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5868,6 +6527,9 @@
       <c r="G220">
         <v>0.5653030994492696</v>
       </c>
+      <c r="H220">
+        <v>0.1344237158190646</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5893,6 +6555,9 @@
       <c r="G221">
         <v>0.612368204776317</v>
       </c>
+      <c r="H221">
+        <v>0.1967799642218247</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5918,6 +6583,9 @@
       <c r="G222">
         <v>0.6323714977508678</v>
       </c>
+      <c r="H222">
+        <v>0.08561206235624841</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5943,6 +6611,9 @@
       <c r="G223">
         <v>0.523592170727563</v>
       </c>
+      <c r="H223">
+        <v>0.1068234091489906</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5968,6 +6639,9 @@
       <c r="G224">
         <v>0.6088949446377301</v>
       </c>
+      <c r="H224">
+        <v>0.3933043700485561</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5993,6 +6667,9 @@
       <c r="G225">
         <v>0.5659668126661505</v>
       </c>
+      <c r="H225">
+        <v>0.1259902887809864</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -6018,6 +6695,9 @@
       <c r="G226">
         <v>0</v>
       </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -6043,6 +6723,9 @@
       <c r="G227">
         <v>0.4805094011455851</v>
       </c>
+      <c r="H227">
+        <v>0.2075134168157424</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -6068,6 +6751,9 @@
       <c r="G228">
         <v>0.5915076561901844</v>
       </c>
+      <c r="H228">
+        <v>0.1776130845898288</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -6093,6 +6779,9 @@
       <c r="G229">
         <v>0</v>
       </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -6118,6 +6807,9 @@
       <c r="G230">
         <v>0.3385146011164245</v>
       </c>
+      <c r="H230">
+        <v>0.1635573728596984</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -6143,6 +6835,9 @@
       <c r="G231">
         <v>0.3767446812280778</v>
       </c>
+      <c r="H231">
+        <v>0.01456682852031689</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -6168,6 +6863,9 @@
       <c r="G232">
         <v>0.3424608017868911</v>
       </c>
+      <c r="H232">
+        <v>0.01022233580373115</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -6193,6 +6891,9 @@
       <c r="G233">
         <v>0.4471468781740496</v>
       </c>
+      <c r="H233">
+        <v>0.08918987988755431</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -6218,6 +6919,9 @@
       <c r="G234">
         <v>0.4010530173378639</v>
       </c>
+      <c r="H234">
+        <v>0.02990033222591362</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -6243,6 +6947,9 @@
       <c r="G235">
         <v>0.3608929831474801</v>
       </c>
+      <c r="H235">
+        <v>0.01252236135957066</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -6268,6 +6975,9 @@
       <c r="G236">
         <v>0.3509881561445794</v>
       </c>
+      <c r="H236">
+        <v>0.08637873754152824</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -6293,6 +7003,9 @@
       <c r="G237">
         <v>0.3879015676334396</v>
       </c>
+      <c r="H237">
+        <v>0.01865576284180935</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -6318,6 +7031,9 @@
       <c r="G238">
         <v>0.4669320384115888</v>
       </c>
+      <c r="H238">
+        <v>0.008944543828264758</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -6343,6 +7059,9 @@
       <c r="G239">
         <v>0.4806474766056895</v>
       </c>
+      <c r="H239">
+        <v>0.08791208791208792</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -6368,6 +7087,9 @@
       <c r="G240">
         <v>0.4473125845207249</v>
       </c>
+      <c r="H240">
+        <v>0.02427804753386149</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -6393,6 +7115,9 @@
       <c r="G241">
         <v>0.4080227253223134</v>
       </c>
+      <c r="H241">
+        <v>0.02453360592895477</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -6418,6 +7143,9 @@
       <c r="G242">
         <v>0.556739434220571</v>
       </c>
+      <c r="H242">
+        <v>0.0784564272936366</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -6443,6 +7171,9 @@
       <c r="G243">
         <v>0.3629693229648739</v>
       </c>
+      <c r="H243">
+        <v>0.003322259136212625</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -6468,6 +7199,9 @@
       <c r="G244">
         <v>0.4750043365099592</v>
       </c>
+      <c r="H244">
+        <v>0.02197802197802198</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -6493,6 +7227,9 @@
       <c r="G245">
         <v>0.5023199418831413</v>
       </c>
+      <c r="H245">
+        <v>0.1719907998977766</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -6518,6 +7255,9 @@
       <c r="G246">
         <v>0.4200819550032492</v>
       </c>
+      <c r="H246">
+        <v>0.1625351392793253</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -6543,6 +7283,9 @@
       <c r="G247">
         <v>0.3362095376286344</v>
       </c>
+      <c r="H247">
+        <v>0.008688985433171479</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -6568,6 +7311,9 @@
       <c r="G248">
         <v>0.3693573525005676</v>
       </c>
+      <c r="H248">
+        <v>0.1055456171735241</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -6593,6 +7339,9 @@
       <c r="G249">
         <v>0.4671250355551964</v>
       </c>
+      <c r="H249">
+        <v>0.1162790697674419</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -6618,6 +7367,9 @@
       <c r="G250">
         <v>0.3941548766467846</v>
       </c>
+      <c r="H250">
+        <v>0.01865576284180935</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -6643,6 +7395,9 @@
       <c r="G251">
         <v>0.4790636501104165</v>
       </c>
+      <c r="H251">
+        <v>0.1339125990288781</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -6668,6 +7423,9 @@
       <c r="G252">
         <v>0.4262077429135475</v>
       </c>
+      <c r="H252">
+        <v>0.04906721185790953</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6693,6 +7451,9 @@
       <c r="G253">
         <v>0.3908873234000071</v>
       </c>
+      <c r="H253">
+        <v>0.007666751852798364</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6718,6 +7479,9 @@
       <c r="G254">
         <v>0.4458821862569828</v>
       </c>
+      <c r="H254">
+        <v>0.3005366726296959</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6743,6 +7507,9 @@
       <c r="G255">
         <v>0.395982978615116</v>
       </c>
+      <c r="H255">
+        <v>0.2139023766930744</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6768,6 +7535,9 @@
       <c r="G256">
         <v>0.6585245589627211</v>
       </c>
+      <c r="H256">
+        <v>0.4477383082034245</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6793,6 +7563,9 @@
       <c r="G257">
         <v>0.5837221930178247</v>
       </c>
+      <c r="H257">
+        <v>0.8668540761564018</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6818,6 +7591,9 @@
       <c r="G258">
         <v>0.3625734774017842</v>
       </c>
+      <c r="H258">
+        <v>0.08305647840531562</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6843,6 +7619,9 @@
       <c r="G259">
         <v>0.4938440536851539</v>
       </c>
+      <c r="H259">
+        <v>0.1290569895221058</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6868,6 +7647,9 @@
       <c r="G260">
         <v>0.4887557157171215</v>
       </c>
+      <c r="H260">
+        <v>0.5254280603117812</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6893,6 +7675,9 @@
       <c r="G261">
         <v>0.4337119538839018</v>
       </c>
+      <c r="H261">
+        <v>0.2213135701507795</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6918,6 +7703,9 @@
       <c r="G262">
         <v>0.5590891281768543</v>
       </c>
+      <c r="H262">
+        <v>0.2864809608995655</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6943,6 +7731,9 @@
       <c r="G263">
         <v>0.4802745592542066</v>
       </c>
+      <c r="H263">
+        <v>0.867109634551495</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6968,6 +7759,9 @@
       <c r="G264">
         <v>0.4238688256389047</v>
       </c>
+      <c r="H264">
+        <v>0.6125734730385893</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6993,6 +7787,9 @@
       <c r="G265">
         <v>0.5112934360574566</v>
       </c>
+      <c r="H265">
+        <v>0.3759263991822132</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -7018,6 +7815,9 @@
       <c r="G266">
         <v>0.4804012809494995</v>
       </c>
+      <c r="H266">
+        <v>0.1022233580373115</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -7043,6 +7843,9 @@
       <c r="G267">
         <v>0.3622035374341396</v>
       </c>
+      <c r="H267">
+        <v>0.03705596728852543</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -7068,6 +7871,9 @@
       <c r="G268">
         <v>0.3696765608033984</v>
       </c>
+      <c r="H268">
+        <v>0.06721185790953232</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -7093,6 +7899,9 @@
       <c r="G269">
         <v>0.4090461094135731</v>
       </c>
+      <c r="H269">
+        <v>0.0615895732174802</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -7118,6 +7927,9 @@
       <c r="G270">
         <v>0.421654558634406</v>
       </c>
+      <c r="H270">
+        <v>0.0470227446971633</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -7143,6 +7955,9 @@
       <c r="G271">
         <v>0.375384876250338</v>
       </c>
+      <c r="H271">
+        <v>0.05928954766164068</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -7168,6 +7983,9 @@
       <c r="G272">
         <v>0.3583504448698356</v>
       </c>
+      <c r="H272">
+        <v>0.1801686685407616</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -7193,6 +8011,9 @@
       <c r="G273">
         <v>0.4378390334286204</v>
       </c>
+      <c r="H273">
+        <v>0.03603373370815231</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -7218,6 +8039,9 @@
       <c r="G274">
         <v>0.5129770125110511</v>
       </c>
+      <c r="H274">
+        <v>0.1298236647073856</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -7243,6 +8067,9 @@
       <c r="G275">
         <v>0.4260426257599322</v>
       </c>
+      <c r="H275">
+        <v>0.1175568617429083</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -7268,6 +8095,9 @@
       <c r="G276">
         <v>0.4071149731693418</v>
       </c>
+      <c r="H276">
+        <v>0.07053411704574496</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -7293,6 +8123,9 @@
       <c r="G277">
         <v>0.4323340832387518</v>
       </c>
+      <c r="H277">
+        <v>0.09711219013544595</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -7318,6 +8151,9 @@
       <c r="G278">
         <v>0.3515110740366012</v>
       </c>
+      <c r="H278">
+        <v>0.04830053667262969</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -7343,6 +8179,9 @@
       <c r="G279">
         <v>0.364517146101417</v>
       </c>
+      <c r="H279">
+        <v>0.04600051111679019</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -7368,6 +8207,9 @@
       <c r="G280">
         <v>0.3985880243486797</v>
       </c>
+      <c r="H280">
+        <v>0.02760030667007411</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -7393,6 +8235,9 @@
       <c r="G281">
         <v>0.2889108467760659</v>
       </c>
+      <c r="H281">
+        <v>0.05213391259902888</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -7418,6 +8263,9 @@
       <c r="G282">
         <v>0.4221103425586469</v>
       </c>
+      <c r="H282">
+        <v>0.05443393815486839</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -7443,6 +8291,9 @@
       <c r="G283">
         <v>0.3138493033821486</v>
       </c>
+      <c r="H283">
+        <v>0.01712241247124968</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -7468,6 +8319,9 @@
       <c r="G284">
         <v>0.4616478397540317</v>
       </c>
+      <c r="H284">
+        <v>0.2491694352159468</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -7493,6 +8347,9 @@
       <c r="G285">
         <v>0.4748963331823535</v>
       </c>
+      <c r="H285">
+        <v>0.1939688218757986</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -7518,6 +8375,9 @@
       <c r="G286">
         <v>0.3605759765489348</v>
       </c>
+      <c r="H286">
+        <v>0.03654485049833887</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -7543,6 +8403,9 @@
       <c r="G287">
         <v>0.376020606290416</v>
       </c>
+      <c r="H287">
+        <v>0.143879376437516</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -7568,6 +8431,9 @@
       <c r="G288">
         <v>0.450620695382165</v>
       </c>
+      <c r="H288">
+        <v>0.1765908510094557</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -7593,6 +8459,9 @@
       <c r="G289">
         <v>0.3135986318672984</v>
       </c>
+      <c r="H289">
+        <v>0.08075645284947611</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -7618,6 +8487,9 @@
       <c r="G290">
         <v>0.4782898698857825</v>
       </c>
+      <c r="H290">
+        <v>0.03220035778175313</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -7643,6 +8515,9 @@
       <c r="G291">
         <v>0.5379985423537342</v>
       </c>
+      <c r="H291">
+        <v>0.03066700741119346</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -7668,6 +8543,9 @@
       <c r="G292">
         <v>0.5430107120372718</v>
       </c>
+      <c r="H292">
+        <v>0.02683363148479427</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -7693,6 +8571,9 @@
       <c r="G293">
         <v>0.554783031017568</v>
       </c>
+      <c r="H293">
+        <v>0.04012266802964477</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -7718,6 +8599,9 @@
       <c r="G294">
         <v>0.6039531459608445</v>
       </c>
+      <c r="H294">
+        <v>0.02708918987988755</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -7743,6 +8627,9 @@
       <c r="G295">
         <v>0.4356071549593661</v>
       </c>
+      <c r="H295">
+        <v>0.01175568617429083</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -7768,6 +8655,9 @@
       <c r="G296">
         <v>0.5607932750427518</v>
       </c>
+      <c r="H296">
+        <v>0.04753386148734986</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -7793,6 +8683,9 @@
       <c r="G297">
         <v>0.6003682384480353</v>
       </c>
+      <c r="H297">
+        <v>0.1190902121134679</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -7818,6 +8711,9 @@
       <c r="G298">
         <v>0.5106507427842081</v>
       </c>
+      <c r="H298">
+        <v>0.1474571939688219</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7843,6 +8739,9 @@
       <c r="G299">
         <v>0.4121854364135172</v>
       </c>
+      <c r="H299">
+        <v>0.01354459493994378</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7868,6 +8767,9 @@
       <c r="G300">
         <v>0.4511565464842974</v>
       </c>
+      <c r="H300">
+        <v>0.006644518272425249</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7892,6 +8794,9 @@
       </c>
       <c r="G301">
         <v>0.5654468740339744</v>
+      </c>
+      <c r="H301">
+        <v>0.06056733963710708</v>
       </c>
     </row>
   </sheetData>

--- a/Pre_Processing/abiotic_mi_sampling/lab_ml_v.xlsx
+++ b/Pre_Processing/abiotic_mi_sampling/lab_ml_v.xlsx
@@ -406,7 +406,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C2">
         <v>2734822.966</v>
@@ -434,7 +434,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C3">
         <v>2734821.586</v>
@@ -462,7 +462,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C4">
         <v>2734820.122</v>
@@ -490,7 +490,7 @@
         </is>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C5">
         <v>2734822.048</v>
@@ -518,7 +518,7 @@
         </is>
       </c>
       <c r="B6">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C6">
         <v>2734820.51</v>
@@ -546,7 +546,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C7">
         <v>2734819.422</v>
@@ -574,7 +574,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C8">
         <v>2734842.711</v>
@@ -602,7 +602,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C9">
         <v>2734840.93</v>
@@ -630,7 +630,7 @@
         </is>
       </c>
       <c r="B10">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C10">
         <v>2734839.109</v>
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C11">
         <v>2734848.046</v>
@@ -686,7 +686,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C12">
         <v>2734847.009</v>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C13">
         <v>2734844.813</v>
@@ -742,7 +742,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C14">
         <v>2736794.555</v>
@@ -770,7 +770,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C15">
         <v>2736795.293</v>
@@ -798,7 +798,7 @@
         </is>
       </c>
       <c r="B16">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C16">
         <v>2736797.722</v>
@@ -826,7 +826,7 @@
         </is>
       </c>
       <c r="B17">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C17">
         <v>2736788.393</v>
@@ -854,7 +854,7 @@
         </is>
       </c>
       <c r="B18">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C18">
         <v>2736790.236</v>
@@ -882,7 +882,7 @@
         </is>
       </c>
       <c r="B19">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C19">
         <v>2736791.653</v>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="B20">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C20">
         <v>2736779.218</v>
@@ -938,7 +938,7 @@
         </is>
       </c>
       <c r="B21">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C21">
         <v>2736779.933</v>
@@ -966,7 +966,7 @@
         </is>
       </c>
       <c r="B22">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C22">
         <v>2736780.461</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="B23">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C23">
         <v>2736773.965</v>
@@ -1022,7 +1022,7 @@
         </is>
       </c>
       <c r="B24">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C24">
         <v>2736774.94</v>
@@ -1050,7 +1050,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C25">
         <v>2736775.968</v>
@@ -1078,7 +1078,7 @@
         </is>
       </c>
       <c r="B26">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C26">
         <v>2729452.93</v>
@@ -1106,7 +1106,7 @@
         </is>
       </c>
       <c r="B27">
-        <v>34</v>
+        <v>0.34</v>
       </c>
       <c r="C27">
         <v>2729453.503</v>
@@ -1134,7 +1134,7 @@
         </is>
       </c>
       <c r="B28">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C28">
         <v>2729455.95</v>
@@ -1162,7 +1162,7 @@
         </is>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C29">
         <v>2729467.877</v>
@@ -1190,7 +1190,7 @@
         </is>
       </c>
       <c r="B30">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C30">
         <v>2729468.705</v>
@@ -1218,7 +1218,7 @@
         </is>
       </c>
       <c r="B31">
-        <v>129</v>
+        <v>1.29</v>
       </c>
       <c r="C31">
         <v>2729472.058</v>
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C32">
         <v>2729479.749</v>
@@ -1274,7 +1274,7 @@
         </is>
       </c>
       <c r="B33">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C33">
         <v>2729481.799</v>
@@ -1302,7 +1302,7 @@
         </is>
       </c>
       <c r="B34">
-        <v>76</v>
+        <v>0.76</v>
       </c>
       <c r="C34">
         <v>2729484.994</v>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C35">
         <v>2729492.519</v>
@@ -1358,7 +1358,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C36">
         <v>2729492.55</v>
@@ -1386,7 +1386,7 @@
         </is>
       </c>
       <c r="B37">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C37">
         <v>2729483.169</v>
@@ -1414,7 +1414,7 @@
         </is>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C38">
         <v>2724226.173</v>
@@ -1442,7 +1442,7 @@
         </is>
       </c>
       <c r="B39">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C39">
         <v>2724223.029</v>
@@ -1470,7 +1470,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C40">
         <v>2724220.552</v>
@@ -1498,7 +1498,7 @@
         </is>
       </c>
       <c r="B41">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C41">
         <v>2724246.208</v>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="B42">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C42">
         <v>2724242.675</v>
@@ -1554,7 +1554,7 @@
         </is>
       </c>
       <c r="B43">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C43">
         <v>2724239.893</v>
@@ -1582,7 +1582,7 @@
         </is>
       </c>
       <c r="B44">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C44">
         <v>2724271.197</v>
@@ -1610,7 +1610,7 @@
         </is>
       </c>
       <c r="B45">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C45">
         <v>2724266.559</v>
@@ -1638,7 +1638,7 @@
         </is>
       </c>
       <c r="B46">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C46">
         <v>2724262.863</v>
@@ -1666,7 +1666,7 @@
         </is>
       </c>
       <c r="B47">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C47">
         <v>2724301.635</v>
@@ -1694,7 +1694,7 @@
         </is>
       </c>
       <c r="B48">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C48">
         <v>2724299.362</v>
@@ -1722,7 +1722,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>41</v>
+        <v>0.41</v>
       </c>
       <c r="C49">
         <v>2724296.812</v>
@@ -1750,7 +1750,7 @@
         </is>
       </c>
       <c r="B50">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C50">
         <v>2723228.944</v>
@@ -1778,7 +1778,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C51">
         <v>2723231.037</v>
@@ -1806,7 +1806,7 @@
         </is>
       </c>
       <c r="B52">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C52">
         <v>2723233.635</v>
@@ -1834,7 +1834,7 @@
         </is>
       </c>
       <c r="B53">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C53">
         <v>2723247.566</v>
@@ -1862,7 +1862,7 @@
         </is>
       </c>
       <c r="B54">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C54">
         <v>2723247.176</v>
@@ -1890,7 +1890,7 @@
         </is>
       </c>
       <c r="B55">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C55">
         <v>2723253.1</v>
@@ -1918,7 +1918,7 @@
         </is>
       </c>
       <c r="B56">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C56">
         <v>2723269.258</v>
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="B57">
-        <v>62</v>
+        <v>0.62</v>
       </c>
       <c r="C57">
         <v>2723272.918</v>
@@ -1974,7 +1974,7 @@
         </is>
       </c>
       <c r="B58">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C58">
         <v>2723280.564</v>
@@ -2002,7 +2002,7 @@
         </is>
       </c>
       <c r="B59">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C59">
         <v>2723285.605</v>
@@ -2030,7 +2030,7 @@
         </is>
       </c>
       <c r="B60">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C60">
         <v>2723291.038</v>
@@ -2058,7 +2058,7 @@
         </is>
       </c>
       <c r="B61">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C61">
         <v>2723297.98</v>
@@ -2086,7 +2086,7 @@
         </is>
       </c>
       <c r="B62">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C62">
         <v>2723366.066</v>
@@ -2114,7 +2114,7 @@
         </is>
       </c>
       <c r="B63">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C63">
         <v>2723359.849</v>
@@ -2142,7 +2142,7 @@
         </is>
       </c>
       <c r="B64">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C64">
         <v>2723353.398</v>
@@ -2170,7 +2170,7 @@
         </is>
       </c>
       <c r="B65">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C65">
         <v>2723333.9</v>
@@ -2198,7 +2198,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C66">
         <v>2723329.101</v>
@@ -2226,7 +2226,7 @@
         </is>
       </c>
       <c r="B67">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C67">
         <v>2723325.553</v>
@@ -2254,7 +2254,7 @@
         </is>
       </c>
       <c r="B68">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C68">
         <v>2723215.171</v>
@@ -2282,7 +2282,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>139</v>
+        <v>1.39</v>
       </c>
       <c r="C69">
         <v>2723201.949</v>
@@ -2310,7 +2310,7 @@
         </is>
       </c>
       <c r="B70">
-        <v>135</v>
+        <v>1.35</v>
       </c>
       <c r="C70">
         <v>2723184.903</v>
@@ -2338,7 +2338,7 @@
         </is>
       </c>
       <c r="B71">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C71">
         <v>2723219.139</v>
@@ -2366,7 +2366,7 @@
         </is>
       </c>
       <c r="B72">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C72">
         <v>2723211.554</v>
@@ -2394,7 +2394,7 @@
         </is>
       </c>
       <c r="B73">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C73">
         <v>2723203.218</v>
@@ -2422,7 +2422,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C74">
         <v>2742136.499</v>
@@ -2450,7 +2450,7 @@
         </is>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C75">
         <v>2742133.302</v>
@@ -2478,7 +2478,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C76">
         <v>2742128.621</v>
@@ -2506,7 +2506,7 @@
         </is>
       </c>
       <c r="B77">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C77">
         <v>2742123.285</v>
@@ -2534,7 +2534,7 @@
         </is>
       </c>
       <c r="B78">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C78">
         <v>2742118.852</v>
@@ -2562,7 +2562,7 @@
         </is>
       </c>
       <c r="B79">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C79">
         <v>2742116.269</v>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C80">
         <v>2742118.569</v>
@@ -2618,7 +2618,7 @@
         </is>
       </c>
       <c r="B81">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C81">
         <v>2742115.15</v>
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="B82">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C82">
         <v>2742112.858</v>
@@ -2674,7 +2674,7 @@
         </is>
       </c>
       <c r="B83">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C83">
         <v>2742159.694</v>
@@ -2702,7 +2702,7 @@
         </is>
       </c>
       <c r="B84">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C84">
         <v>2742154.977</v>
@@ -2730,7 +2730,7 @@
         </is>
       </c>
       <c r="B85">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C85">
         <v>2742150.3</v>
@@ -2758,7 +2758,7 @@
         </is>
       </c>
       <c r="B86">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C86">
         <v>2743458.686</v>
@@ -2786,7 +2786,7 @@
         </is>
       </c>
       <c r="B87">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C87">
         <v>2743462.07</v>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="B88">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C88">
         <v>2743464.677</v>
@@ -2842,7 +2842,7 @@
         </is>
       </c>
       <c r="B89">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C89">
         <v>2743416.296</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B90">
-        <v>19</v>
+        <v>0.19</v>
       </c>
       <c r="C90">
         <v>2743416.808</v>
@@ -2898,7 +2898,7 @@
         </is>
       </c>
       <c r="B91">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C91">
         <v>2743417.595</v>
@@ -2926,7 +2926,7 @@
         </is>
       </c>
       <c r="B92">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C92">
         <v>2743372.595</v>
@@ -2954,7 +2954,7 @@
         </is>
       </c>
       <c r="B93">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C93">
         <v>2743369.91</v>
@@ -2982,7 +2982,7 @@
         </is>
       </c>
       <c r="B94">
-        <v>113</v>
+        <v>1.13</v>
       </c>
       <c r="C94">
         <v>2743363.472</v>
@@ -3010,7 +3010,7 @@
         </is>
       </c>
       <c r="B95">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C95">
         <v>2743378.786</v>
@@ -3038,7 +3038,7 @@
         </is>
       </c>
       <c r="B96">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C96">
         <v>2743375.546</v>
@@ -3066,7 +3066,7 @@
         </is>
       </c>
       <c r="B97">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C97">
         <v>2743372.187</v>
@@ -3094,7 +3094,7 @@
         </is>
       </c>
       <c r="B98">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C98">
         <v>2743332.409</v>
@@ -3122,7 +3122,7 @@
         </is>
       </c>
       <c r="B99">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C99">
         <v>2743330.389</v>
@@ -3150,7 +3150,7 @@
         </is>
       </c>
       <c r="B100">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C100">
         <v>2743329.05</v>
@@ -3178,7 +3178,7 @@
         </is>
       </c>
       <c r="B101">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C101">
         <v>2743344.568</v>
@@ -3206,7 +3206,7 @@
         </is>
       </c>
       <c r="B102">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C102">
         <v>2743343.282</v>
@@ -3234,7 +3234,7 @@
         </is>
       </c>
       <c r="B103">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C103">
         <v>2743342.309</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="B104">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C104">
         <v>2743350.691</v>
@@ -3290,7 +3290,7 @@
         </is>
       </c>
       <c r="B105">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C105">
         <v>2743349.449</v>
@@ -3318,7 +3318,7 @@
         </is>
       </c>
       <c r="B106">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C106">
         <v>2743347.875</v>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="B107">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C107">
         <v>2743380.451</v>
@@ -3374,7 +3374,7 @@
         </is>
       </c>
       <c r="B108">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C108">
         <v>2743380.779</v>
@@ -3402,7 +3402,7 @@
         </is>
       </c>
       <c r="B109">
-        <v>33</v>
+        <v>0.33</v>
       </c>
       <c r="C109">
         <v>2743380.264</v>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="B110">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C110">
         <v>2734155.885</v>
@@ -3458,7 +3458,7 @@
         </is>
       </c>
       <c r="B111">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C111">
         <v>2734160.239</v>
@@ -3486,7 +3486,7 @@
         </is>
       </c>
       <c r="B112">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C112">
         <v>2734164.721</v>
@@ -3514,7 +3514,7 @@
         </is>
       </c>
       <c r="B113">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C113">
         <v>2734187.861</v>
@@ -3542,7 +3542,7 @@
         </is>
       </c>
       <c r="B114">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C114">
         <v>2734194.159</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="B115">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C115">
         <v>2734197.665</v>
@@ -3598,7 +3598,7 @@
         </is>
       </c>
       <c r="B116">
-        <v>14</v>
+        <v>0.14</v>
       </c>
       <c r="C116">
         <v>2734202.938</v>
@@ -3626,7 +3626,7 @@
         </is>
       </c>
       <c r="B117">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C117">
         <v>2734208.986</v>
@@ -3654,7 +3654,7 @@
         </is>
       </c>
       <c r="B118">
-        <v>94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="C118">
         <v>2734215.143</v>
@@ -3682,7 +3682,7 @@
         </is>
       </c>
       <c r="B119">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C119">
         <v>2734224.145</v>
@@ -3710,7 +3710,7 @@
         </is>
       </c>
       <c r="B120">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C120">
         <v>2734231.618</v>
@@ -3738,7 +3738,7 @@
         </is>
       </c>
       <c r="B121">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C121">
         <v>2734235.725</v>
@@ -3766,7 +3766,7 @@
         </is>
       </c>
       <c r="B122">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C122">
         <v>2576387.499</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="B123">
-        <v>37</v>
+        <v>0.37</v>
       </c>
       <c r="C123">
         <v>2576389.998</v>
@@ -3822,7 +3822,7 @@
         </is>
       </c>
       <c r="B124">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C124">
         <v>2576391.39</v>
@@ -3850,7 +3850,7 @@
         </is>
       </c>
       <c r="B125">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C125">
         <v>2576354.563</v>
@@ -3878,7 +3878,7 @@
         </is>
       </c>
       <c r="B126">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C126">
         <v>2576357.847</v>
@@ -3906,7 +3906,7 @@
         </is>
       </c>
       <c r="B127">
-        <v>60</v>
+        <v>0.6</v>
       </c>
       <c r="C127">
         <v>2576359.485</v>
@@ -3934,7 +3934,7 @@
         </is>
       </c>
       <c r="B128">
-        <v>6</v>
+        <v>0.06</v>
       </c>
       <c r="C128">
         <v>2576331.741</v>
@@ -3962,7 +3962,7 @@
         </is>
       </c>
       <c r="B129">
-        <v>109</v>
+        <v>1.09</v>
       </c>
       <c r="C129">
         <v>2576333.64</v>
@@ -3990,7 +3990,7 @@
         </is>
       </c>
       <c r="B130">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C130">
         <v>2576335.269</v>
@@ -4018,7 +4018,7 @@
         </is>
       </c>
       <c r="B131">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C131">
         <v>2576316.104</v>
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="B132">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C132">
         <v>2576317.881</v>
@@ -4074,7 +4074,7 @@
         </is>
       </c>
       <c r="B133">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C133">
         <v>2576319.414</v>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="B134">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C134">
         <v>2575586.286</v>
@@ -4130,7 +4130,7 @@
         </is>
       </c>
       <c r="B135">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C135">
         <v>2575582.185</v>
@@ -4158,7 +4158,7 @@
         </is>
       </c>
       <c r="B136">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C136">
         <v>2575578.339</v>
@@ -4186,7 +4186,7 @@
         </is>
       </c>
       <c r="B137">
-        <v>9</v>
+        <v>0.09</v>
       </c>
       <c r="C137">
         <v>2575585.106</v>
@@ -4214,7 +4214,7 @@
         </is>
       </c>
       <c r="B138">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C138">
         <v>2575580.608</v>
@@ -4242,7 +4242,7 @@
         </is>
       </c>
       <c r="B139">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C139">
         <v>2575576.93</v>
@@ -4270,7 +4270,7 @@
         </is>
       </c>
       <c r="B140">
-        <v>18</v>
+        <v>0.18</v>
       </c>
       <c r="C140">
         <v>2575584.319</v>
@@ -4298,7 +4298,7 @@
         </is>
       </c>
       <c r="B141">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C141">
         <v>2575579.283</v>
@@ -4326,7 +4326,7 @@
         </is>
       </c>
       <c r="B142">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C142">
         <v>2575575.53</v>
@@ -4354,7 +4354,7 @@
         </is>
       </c>
       <c r="B143">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C143">
         <v>2575595.907</v>
@@ -4382,7 +4382,7 @@
         </is>
       </c>
       <c r="B144">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C144">
         <v>2575589.22</v>
@@ -4410,7 +4410,7 @@
         </is>
       </c>
       <c r="B145">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C145">
         <v>2575583.262</v>
@@ -4438,7 +4438,7 @@
         </is>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C146">
         <v>2579336.846</v>
@@ -4466,7 +4466,7 @@
         </is>
       </c>
       <c r="B147">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C147">
         <v>2579340.226</v>
@@ -4494,7 +4494,7 @@
         </is>
       </c>
       <c r="B148">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C148">
         <v>2579342.199</v>
@@ -4522,7 +4522,7 @@
         </is>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>0.03</v>
       </c>
       <c r="C149">
         <v>2579351.752</v>
@@ -4550,7 +4550,7 @@
         </is>
       </c>
       <c r="B150">
-        <v>57</v>
+        <v>0.57</v>
       </c>
       <c r="C150">
         <v>2579354.745</v>
@@ -4578,7 +4578,7 @@
         </is>
       </c>
       <c r="B151">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C151">
         <v>2579360.786</v>
@@ -4606,7 +4606,7 @@
         </is>
       </c>
       <c r="B152">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C152">
         <v>2579367.687</v>
@@ -4634,7 +4634,7 @@
         </is>
       </c>
       <c r="B153">
-        <v>82</v>
+        <v>0.82</v>
       </c>
       <c r="C153">
         <v>2579371.137</v>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="B154">
-        <v>122</v>
+        <v>1.22</v>
       </c>
       <c r="C154">
         <v>2579372.832</v>
@@ -4690,7 +4690,7 @@
         </is>
       </c>
       <c r="B155">
-        <v>13</v>
+        <v>0.13</v>
       </c>
       <c r="C155">
         <v>2579383.987</v>
@@ -4718,7 +4718,7 @@
         </is>
       </c>
       <c r="B156">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C156">
         <v>2579388.171</v>
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="B157">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C157">
         <v>2579391.292</v>
@@ -4774,7 +4774,7 @@
         </is>
       </c>
       <c r="B158">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C158">
         <v>2584537.727</v>
@@ -4802,7 +4802,7 @@
         </is>
       </c>
       <c r="B159">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C159">
         <v>2584530.12</v>
@@ -4830,7 +4830,7 @@
         </is>
       </c>
       <c r="B160">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C160">
         <v>2584524.207</v>
@@ -4858,7 +4858,7 @@
         </is>
       </c>
       <c r="B161">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C161">
         <v>2584513.192</v>
@@ -4886,7 +4886,7 @@
         </is>
       </c>
       <c r="B162">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C162">
         <v>2584504.443</v>
@@ -4914,7 +4914,7 @@
         </is>
       </c>
       <c r="B163">
-        <v>58</v>
+        <v>0.58</v>
       </c>
       <c r="C163">
         <v>2584500.077</v>
@@ -4942,7 +4942,7 @@
         </is>
       </c>
       <c r="B164">
-        <v>7</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C164">
         <v>2584473.553</v>
@@ -4970,7 +4970,7 @@
         </is>
       </c>
       <c r="B165">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C165">
         <v>2584461.481</v>
@@ -4998,7 +4998,7 @@
         </is>
       </c>
       <c r="B166">
-        <v>117</v>
+        <v>1.17</v>
       </c>
       <c r="C166">
         <v>2584454.101</v>
@@ -5026,7 +5026,7 @@
         </is>
       </c>
       <c r="B167">
-        <v>28</v>
+        <v>0.28</v>
       </c>
       <c r="C167">
         <v>2584458.622</v>
@@ -5054,7 +5054,7 @@
         </is>
       </c>
       <c r="B168">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C168">
         <v>2584449.091</v>
@@ -5082,7 +5082,7 @@
         </is>
       </c>
       <c r="B169">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C169">
         <v>2584440.652</v>
@@ -5110,7 +5110,7 @@
         </is>
       </c>
       <c r="B170">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C170">
         <v>2768906.248</v>
@@ -5138,7 +5138,7 @@
         </is>
       </c>
       <c r="B171">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C171">
         <v>2768905.497</v>
@@ -5166,7 +5166,7 @@
         </is>
       </c>
       <c r="B172">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C172">
         <v>2768905.85</v>
@@ -5194,7 +5194,7 @@
         </is>
       </c>
       <c r="B173">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C173">
         <v>2768943.691</v>
@@ -5222,7 +5222,7 @@
         </is>
       </c>
       <c r="B174">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C174">
         <v>2768943.608</v>
@@ -5250,7 +5250,7 @@
         </is>
       </c>
       <c r="B175">
-        <v>78</v>
+        <v>0.78</v>
       </c>
       <c r="C175">
         <v>2768943.348</v>
@@ -5278,7 +5278,7 @@
         </is>
       </c>
       <c r="B176">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C176">
         <v>2769001.048</v>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="B177">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C177">
         <v>2769000.714</v>
@@ -5334,7 +5334,7 @@
         </is>
       </c>
       <c r="B178">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C178">
         <v>2768999.514</v>
@@ -5362,7 +5362,7 @@
         </is>
       </c>
       <c r="B179">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C179">
         <v>2769032.368</v>
@@ -5390,7 +5390,7 @@
         </is>
       </c>
       <c r="B180">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C180">
         <v>2769032.741</v>
@@ -5418,7 +5418,7 @@
         </is>
       </c>
       <c r="B181">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C181">
         <v>2769032.84</v>
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="B182">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C182">
         <v>2779182.3</v>
@@ -5474,7 +5474,7 @@
         </is>
       </c>
       <c r="B183">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C183">
         <v>2779181.994</v>
@@ -5502,7 +5502,7 @@
         </is>
       </c>
       <c r="B184">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C184">
         <v>2779182.708</v>
@@ -5530,7 +5530,7 @@
         </is>
       </c>
       <c r="B185">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C185">
         <v>2779193.191</v>
@@ -5558,7 +5558,7 @@
         </is>
       </c>
       <c r="B186">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C186">
         <v>2779193.201</v>
@@ -5586,7 +5586,7 @@
         </is>
       </c>
       <c r="B187">
-        <v>40</v>
+        <v>0.4</v>
       </c>
       <c r="C187">
         <v>2779193.912</v>
@@ -5614,7 +5614,7 @@
         </is>
       </c>
       <c r="B188">
-        <v>42</v>
+        <v>0.42</v>
       </c>
       <c r="C188">
         <v>2779242.354</v>
@@ -5642,7 +5642,7 @@
         </is>
       </c>
       <c r="B189">
-        <v>54</v>
+        <v>0.54</v>
       </c>
       <c r="C189">
         <v>2779244.929</v>
@@ -5670,7 +5670,7 @@
         </is>
       </c>
       <c r="B190">
-        <v>96</v>
+        <v>0.96</v>
       </c>
       <c r="C190">
         <v>2779245.431</v>
@@ -5698,7 +5698,7 @@
         </is>
       </c>
       <c r="B191">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C191">
         <v>2779255.123</v>
@@ -5726,7 +5726,7 @@
         </is>
       </c>
       <c r="B192">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C192">
         <v>2779257.195</v>
@@ -5754,7 +5754,7 @@
         </is>
       </c>
       <c r="B193">
-        <v>120</v>
+        <v>1.2</v>
       </c>
       <c r="C193">
         <v>2779257.728</v>
@@ -5782,7 +5782,7 @@
         </is>
       </c>
       <c r="B194">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C194">
         <v>2777147.747</v>
@@ -5810,7 +5810,7 @@
         </is>
       </c>
       <c r="B195">
-        <v>38</v>
+        <v>0.38</v>
       </c>
       <c r="C195">
         <v>2777148.101</v>
@@ -5838,7 +5838,7 @@
         </is>
       </c>
       <c r="B196">
-        <v>77</v>
+        <v>0.77</v>
       </c>
       <c r="C196">
         <v>2777149.204</v>
@@ -5866,7 +5866,7 @@
         </is>
       </c>
       <c r="B197">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C197">
         <v>2777156.023</v>
@@ -5894,7 +5894,7 @@
         </is>
       </c>
       <c r="B198">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C198">
         <v>2777154.81</v>
@@ -5922,7 +5922,7 @@
         </is>
       </c>
       <c r="B199">
-        <v>50</v>
+        <v>0.5</v>
       </c>
       <c r="C199">
         <v>2777154.859</v>
@@ -5950,7 +5950,7 @@
         </is>
       </c>
       <c r="B200">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C200">
         <v>2777279.658</v>
@@ -5978,7 +5978,7 @@
         </is>
       </c>
       <c r="B201">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C201">
         <v>2777281.145</v>
@@ -6006,7 +6006,7 @@
         </is>
       </c>
       <c r="B202">
-        <v>124</v>
+        <v>1.24</v>
       </c>
       <c r="C202">
         <v>2777282.005</v>
@@ -6034,7 +6034,7 @@
         </is>
       </c>
       <c r="B203">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C203">
         <v>2777292.361</v>
@@ -6062,7 +6062,7 @@
         </is>
       </c>
       <c r="B204">
-        <v>49</v>
+        <v>0.49</v>
       </c>
       <c r="C204">
         <v>2777292.592</v>
@@ -6090,7 +6090,7 @@
         </is>
       </c>
       <c r="B205">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C205">
         <v>2777294.528</v>
@@ -6118,7 +6118,7 @@
         </is>
       </c>
       <c r="B206">
-        <v>17</v>
+        <v>0.17</v>
       </c>
       <c r="C206">
         <v>2773062.092</v>
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="B207">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C207">
         <v>2773060.541</v>
@@ -6174,7 +6174,7 @@
         </is>
       </c>
       <c r="B208">
-        <v>24</v>
+        <v>0.24</v>
       </c>
       <c r="C208">
         <v>2773058.967</v>
@@ -6202,7 +6202,7 @@
         </is>
       </c>
       <c r="B209">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C209">
         <v>2773064.408</v>
@@ -6230,7 +6230,7 @@
         </is>
       </c>
       <c r="B210">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C210">
         <v>2773063.811</v>
@@ -6258,7 +6258,7 @@
         </is>
       </c>
       <c r="B211">
-        <v>85</v>
+        <v>0.85</v>
       </c>
       <c r="C211">
         <v>2773063.333</v>
@@ -6286,7 +6286,7 @@
         </is>
       </c>
       <c r="B212">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C212">
         <v>2773068.977</v>
@@ -6314,7 +6314,7 @@
         </is>
       </c>
       <c r="B213">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C213">
         <v>2773068.303</v>
@@ -6342,7 +6342,7 @@
         </is>
       </c>
       <c r="B214">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C214">
         <v>2773066.053</v>
@@ -6370,7 +6370,7 @@
         </is>
       </c>
       <c r="B215">
-        <v>11</v>
+        <v>0.11</v>
       </c>
       <c r="C215">
         <v>2773072.626</v>
@@ -6398,7 +6398,7 @@
         </is>
       </c>
       <c r="B216">
-        <v>10</v>
+        <v>0.1</v>
       </c>
       <c r="C216">
         <v>2773071.878</v>
@@ -6426,7 +6426,7 @@
         </is>
       </c>
       <c r="B217">
-        <v>55</v>
+        <v>0.55</v>
       </c>
       <c r="C217">
         <v>2773071.054</v>
@@ -6454,7 +6454,7 @@
         </is>
       </c>
       <c r="B218">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C218">
         <v>2773014.557</v>
@@ -6482,7 +6482,7 @@
         </is>
       </c>
       <c r="B219">
-        <v>81</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="C219">
         <v>2773012.586</v>
@@ -6510,7 +6510,7 @@
         </is>
       </c>
       <c r="B220">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C220">
         <v>2773011.689</v>
@@ -6538,7 +6538,7 @@
         </is>
       </c>
       <c r="B221">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C221">
         <v>2773017.035</v>
@@ -6566,7 +6566,7 @@
         </is>
       </c>
       <c r="B222">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C222">
         <v>2773016.202</v>
@@ -6594,7 +6594,7 @@
         </is>
       </c>
       <c r="B223">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C223">
         <v>2773015.04</v>
@@ -6622,7 +6622,7 @@
         </is>
       </c>
       <c r="B224">
-        <v>25</v>
+        <v>0.25</v>
       </c>
       <c r="C224">
         <v>2773022.819</v>
@@ -6650,7 +6650,7 @@
         </is>
       </c>
       <c r="B225">
-        <v>20</v>
+        <v>0.2</v>
       </c>
       <c r="C225">
         <v>2773021.465</v>
@@ -6678,7 +6678,7 @@
         </is>
       </c>
       <c r="B226">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C226">
         <v>2773019.962</v>
@@ -6706,7 +6706,7 @@
         </is>
       </c>
       <c r="B227">
-        <v>21</v>
+        <v>0.21</v>
       </c>
       <c r="C227">
         <v>2773034.839</v>
@@ -6734,7 +6734,7 @@
         </is>
       </c>
       <c r="B228">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C228">
         <v>2773034.254</v>
@@ -6762,7 +6762,7 @@
         </is>
       </c>
       <c r="B229">
-        <v>65</v>
+        <v>0.65</v>
       </c>
       <c r="C229">
         <v>2773032.65</v>
@@ -6790,7 +6790,7 @@
         </is>
       </c>
       <c r="B230">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C230">
         <v>2746361.002</v>
@@ -6818,7 +6818,7 @@
         </is>
       </c>
       <c r="B231">
-        <v>75</v>
+        <v>0.75</v>
       </c>
       <c r="C231">
         <v>2746367.015</v>
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="B232">
-        <v>80</v>
+        <v>0.8</v>
       </c>
       <c r="C232">
         <v>2746372.339</v>
@@ -6874,7 +6874,7 @@
         </is>
       </c>
       <c r="B233">
-        <v>8</v>
+        <v>0.08</v>
       </c>
       <c r="C233">
         <v>2746263.522</v>
@@ -6902,7 +6902,7 @@
         </is>
       </c>
       <c r="B234">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C234">
         <v>2746264.819</v>
@@ -6930,7 +6930,7 @@
         </is>
       </c>
       <c r="B235">
-        <v>83</v>
+        <v>0.83</v>
       </c>
       <c r="C235">
         <v>2746265.921</v>
@@ -6958,7 +6958,7 @@
         </is>
       </c>
       <c r="B236">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C236">
         <v>2746178.854</v>
@@ -6986,7 +6986,7 @@
         </is>
       </c>
       <c r="B237">
-        <v>66</v>
+        <v>0.66</v>
       </c>
       <c r="C237">
         <v>2746178.552</v>
@@ -7014,7 +7014,7 @@
         </is>
       </c>
       <c r="B238">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C238">
         <v>2746178.843</v>
@@ -7042,7 +7042,7 @@
         </is>
       </c>
       <c r="B239">
-        <v>36</v>
+        <v>0.36</v>
       </c>
       <c r="C239">
         <v>2746128.403</v>
@@ -7070,7 +7070,7 @@
         </is>
       </c>
       <c r="B240">
-        <v>103</v>
+        <v>1.03</v>
       </c>
       <c r="C240">
         <v>2746126.101</v>
@@ -7098,7 +7098,7 @@
         </is>
       </c>
       <c r="B241">
-        <v>152</v>
+        <v>1.52</v>
       </c>
       <c r="C241">
         <v>2746123.583</v>
@@ -7126,7 +7126,7 @@
         </is>
       </c>
       <c r="B242">
-        <v>29</v>
+        <v>0.29</v>
       </c>
       <c r="C242">
         <v>2737473.074</v>
@@ -7154,7 +7154,7 @@
         </is>
       </c>
       <c r="B243">
-        <v>68</v>
+        <v>0.68</v>
       </c>
       <c r="C243">
         <v>2737471.948</v>
@@ -7182,7 +7182,7 @@
         </is>
       </c>
       <c r="B244">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C244">
         <v>2737470.146</v>
@@ -7210,7 +7210,7 @@
         </is>
       </c>
       <c r="B245">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C245">
         <v>2737486.904</v>
@@ -7238,7 +7238,7 @@
         </is>
       </c>
       <c r="B246">
-        <v>45</v>
+        <v>0.45</v>
       </c>
       <c r="C246">
         <v>2737486.324</v>
@@ -7266,7 +7266,7 @@
         </is>
       </c>
       <c r="B247">
-        <v>70</v>
+        <v>0.7</v>
       </c>
       <c r="C247">
         <v>2737485.114</v>
@@ -7294,7 +7294,7 @@
         </is>
       </c>
       <c r="B248">
-        <v>43</v>
+        <v>0.43</v>
       </c>
       <c r="C248">
         <v>2737514.831</v>
@@ -7322,7 +7322,7 @@
         </is>
       </c>
       <c r="B249">
-        <v>104</v>
+        <v>1.04</v>
       </c>
       <c r="C249">
         <v>2737514.786</v>
@@ -7350,7 +7350,7 @@
         </is>
       </c>
       <c r="B250">
-        <v>163</v>
+        <v>1.63</v>
       </c>
       <c r="C250">
         <v>2737514.604</v>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="B251">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C251">
         <v>2737557.603</v>
@@ -7406,7 +7406,7 @@
         </is>
       </c>
       <c r="B252">
-        <v>98</v>
+        <v>0.98</v>
       </c>
       <c r="C252">
         <v>2737558.256</v>
@@ -7434,7 +7434,7 @@
         </is>
       </c>
       <c r="B253">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="C253">
         <v>2737557.385</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="B254">
-        <v>5</v>
+        <v>0.05</v>
       </c>
       <c r="C254">
         <v>2724032.757</v>
@@ -7490,7 +7490,7 @@
         </is>
       </c>
       <c r="B255">
-        <v>30</v>
+        <v>0.3</v>
       </c>
       <c r="C255">
         <v>2724031.554</v>
@@ -7518,7 +7518,7 @@
         </is>
       </c>
       <c r="B256">
-        <v>105</v>
+        <v>1.05</v>
       </c>
       <c r="C256">
         <v>2724030.937</v>
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="B257">
-        <v>2</v>
+        <v>0.02</v>
       </c>
       <c r="C257">
         <v>2724021.807</v>
@@ -7574,7 +7574,7 @@
         </is>
       </c>
       <c r="B258">
-        <v>26</v>
+        <v>0.26</v>
       </c>
       <c r="C258">
         <v>2724020.474</v>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="B259">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C259">
         <v>2724019.255</v>
@@ -7630,7 +7630,7 @@
         </is>
       </c>
       <c r="B260">
-        <v>47</v>
+        <v>0.47</v>
       </c>
       <c r="C260">
         <v>2724005.212</v>
@@ -7658,7 +7658,7 @@
         </is>
       </c>
       <c r="B261">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C261">
         <v>2724008.182</v>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="B262">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C262">
         <v>2724013.766</v>
@@ -7714,7 +7714,7 @@
         </is>
       </c>
       <c r="B263">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C263">
         <v>2723959.961</v>
@@ -7742,7 +7742,7 @@
         </is>
       </c>
       <c r="B264">
-        <v>31</v>
+        <v>0.31</v>
       </c>
       <c r="C264">
         <v>2723967.743</v>
@@ -7770,7 +7770,7 @@
         </is>
       </c>
       <c r="B265">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C265">
         <v>2723976.307</v>
@@ -7798,7 +7798,7 @@
         </is>
       </c>
       <c r="B266">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C266">
         <v>2735248.432</v>
@@ -7826,7 +7826,7 @@
         </is>
       </c>
       <c r="B267">
-        <v>115</v>
+        <v>1.15</v>
       </c>
       <c r="C267">
         <v>2735246.433</v>
@@ -7854,7 +7854,7 @@
         </is>
       </c>
       <c r="B268">
-        <v>102</v>
+        <v>1.02</v>
       </c>
       <c r="C268">
         <v>2735243.729</v>
@@ -7882,7 +7882,7 @@
         </is>
       </c>
       <c r="B269">
-        <v>73</v>
+        <v>0.73</v>
       </c>
       <c r="C269">
         <v>2735262.993</v>
@@ -7910,7 +7910,7 @@
         </is>
       </c>
       <c r="B270">
-        <v>90</v>
+        <v>0.9</v>
       </c>
       <c r="C270">
         <v>2735260.913</v>
@@ -7938,7 +7938,7 @@
         </is>
       </c>
       <c r="B271">
-        <v>131</v>
+        <v>1.31</v>
       </c>
       <c r="C271">
         <v>2735258.67</v>
@@ -7966,7 +7966,7 @@
         </is>
       </c>
       <c r="B272">
-        <v>35</v>
+        <v>0.35</v>
       </c>
       <c r="C272">
         <v>2735319.698</v>
@@ -7994,7 +7994,7 @@
         </is>
       </c>
       <c r="B273">
-        <v>220</v>
+        <v>2.2</v>
       </c>
       <c r="C273">
         <v>2735317.244</v>
@@ -8022,7 +8022,7 @@
         </is>
       </c>
       <c r="B274">
-        <v>172</v>
+        <v>1.72</v>
       </c>
       <c r="C274">
         <v>2735316.334</v>
@@ -8050,7 +8050,7 @@
         </is>
       </c>
       <c r="B275">
-        <v>64</v>
+        <v>0.64</v>
       </c>
       <c r="C275">
         <v>2735341.645</v>
@@ -8078,7 +8078,7 @@
         </is>
       </c>
       <c r="B276">
-        <v>118</v>
+        <v>1.18</v>
       </c>
       <c r="C276">
         <v>2735336.819</v>
@@ -8106,7 +8106,7 @@
         </is>
       </c>
       <c r="B277">
-        <v>108</v>
+        <v>1.08</v>
       </c>
       <c r="C277">
         <v>2735334.931</v>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="B278">
-        <v>32</v>
+        <v>0.32</v>
       </c>
       <c r="C278">
         <v>2735745.309</v>
@@ -8162,7 +8162,7 @@
         </is>
       </c>
       <c r="B279">
-        <v>74</v>
+        <v>0.74</v>
       </c>
       <c r="C279">
         <v>2735746.741</v>
@@ -8190,7 +8190,7 @@
         </is>
       </c>
       <c r="B280">
-        <v>125</v>
+        <v>1.25</v>
       </c>
       <c r="C280">
         <v>2735749.743</v>
@@ -8218,7 +8218,7 @@
         </is>
       </c>
       <c r="B281">
-        <v>1</v>
+        <v>0.01</v>
       </c>
       <c r="C281">
         <v>2735754.012</v>
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="B282">
-        <v>22</v>
+        <v>0.22</v>
       </c>
       <c r="C282">
         <v>2735755.207</v>
@@ -8274,7 +8274,7 @@
         </is>
       </c>
       <c r="B283">
-        <v>97</v>
+        <v>0.97</v>
       </c>
       <c r="C283">
         <v>2735757.467</v>
@@ -8302,7 +8302,7 @@
         </is>
       </c>
       <c r="B284">
-        <v>44</v>
+        <v>0.44</v>
       </c>
       <c r="C284">
         <v>2735773.042</v>
@@ -8330,7 +8330,7 @@
         </is>
       </c>
       <c r="B285">
-        <v>91</v>
+        <v>0.91</v>
       </c>
       <c r="C285">
         <v>2735774.299</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="B286">
-        <v>133</v>
+        <v>1.33</v>
       </c>
       <c r="C286">
         <v>2735776.987</v>
@@ -8386,7 +8386,7 @@
         </is>
       </c>
       <c r="B287">
-        <v>51</v>
+        <v>0.51</v>
       </c>
       <c r="C287">
         <v>2735805.85</v>
@@ -8414,7 +8414,7 @@
         </is>
       </c>
       <c r="B288">
-        <v>93</v>
+        <v>0.93</v>
       </c>
       <c r="C288">
         <v>2735802.55</v>
@@ -8442,7 +8442,7 @@
         </is>
       </c>
       <c r="B289">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C289">
         <v>2735800.157</v>
@@ -8470,7 +8470,7 @@
         </is>
       </c>
       <c r="B290">
-        <v>27</v>
+        <v>0.27</v>
       </c>
       <c r="C290">
         <v>2728888.154</v>
@@ -8498,7 +8498,7 @@
         </is>
       </c>
       <c r="B291">
-        <v>72</v>
+        <v>0.72</v>
       </c>
       <c r="C291">
         <v>2728890.032</v>
@@ -8526,7 +8526,7 @@
         </is>
       </c>
       <c r="B292">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C292">
         <v>2728892.753</v>
@@ -8554,7 +8554,7 @@
         </is>
       </c>
       <c r="B293">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C293">
         <v>2728883.182</v>
@@ -8582,7 +8582,7 @@
         </is>
       </c>
       <c r="B294">
-        <v>48</v>
+        <v>0.48</v>
       </c>
       <c r="C294">
         <v>2728884.638</v>
@@ -8610,7 +8610,7 @@
         </is>
       </c>
       <c r="B295">
-        <v>63</v>
+        <v>0.63</v>
       </c>
       <c r="C295">
         <v>2728885.663</v>
@@ -8638,7 +8638,7 @@
         </is>
       </c>
       <c r="B296">
-        <v>52</v>
+        <v>0.52</v>
       </c>
       <c r="C296">
         <v>2728759.408</v>
@@ -8666,7 +8666,7 @@
         </is>
       </c>
       <c r="B297">
-        <v>158</v>
+        <v>1.58</v>
       </c>
       <c r="C297">
         <v>2728760.321</v>
@@ -8694,7 +8694,7 @@
         </is>
       </c>
       <c r="B298">
-        <v>130</v>
+        <v>1.3</v>
       </c>
       <c r="C298">
         <v>2728761.36</v>
@@ -8722,7 +8722,7 @@
         </is>
       </c>
       <c r="B299">
-        <v>16</v>
+        <v>0.16</v>
       </c>
       <c r="C299">
         <v>2728750.883</v>
@@ -8750,7 +8750,7 @@
         </is>
       </c>
       <c r="B300">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C300">
         <v>2728752.901</v>
@@ -8778,7 +8778,7 @@
         </is>
       </c>
       <c r="B301">
-        <v>69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="C301">
         <v>2728753.806</v>
